--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vip-Vipr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vip-Vipr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.36008819978375</v>
+        <v>1.38698</v>
       </c>
       <c r="H2">
-        <v>1.36008819978375</v>
+        <v>2.77396</v>
       </c>
       <c r="I2">
-        <v>0.6065857471428856</v>
+        <v>0.5967131687073423</v>
       </c>
       <c r="J2">
-        <v>0.6065857471428856</v>
+        <v>0.4965808999056411</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6099530374952959</v>
+        <v>0.6483006666666666</v>
       </c>
       <c r="N2">
-        <v>0.6099530374952959</v>
+        <v>1.944902</v>
       </c>
       <c r="O2">
-        <v>0.2486148153406921</v>
+        <v>0.2310664473662325</v>
       </c>
       <c r="P2">
-        <v>0.2486148153406921</v>
+        <v>0.3059082590740972</v>
       </c>
       <c r="Q2">
-        <v>0.8295899287196072</v>
+        <v>0.8991800586533332</v>
       </c>
       <c r="R2">
-        <v>0.8295899287196072</v>
+        <v>5.395080351919999</v>
       </c>
       <c r="S2">
-        <v>0.1508062035142243</v>
+        <v>0.1378803919898529</v>
       </c>
       <c r="T2">
-        <v>0.1508062035142243</v>
+        <v>0.1519081985795832</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,57 +596,57 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.36008819978375</v>
+        <v>1.38698</v>
       </c>
       <c r="H3">
-        <v>1.36008819978375</v>
+        <v>2.77396</v>
       </c>
       <c r="I3">
-        <v>0.6065857471428856</v>
+        <v>0.5967131687073423</v>
       </c>
       <c r="J3">
-        <v>0.6065857471428856</v>
+        <v>0.4965808999056411</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.84345279296352</v>
+        <v>0.029863</v>
       </c>
       <c r="N3">
-        <v>1.84345279296352</v>
+        <v>0.089589</v>
       </c>
       <c r="O3">
-        <v>0.7513851846593079</v>
+        <v>0.01064373009698864</v>
       </c>
       <c r="P3">
-        <v>0.7513851846593079</v>
+        <v>0.01409120614930176</v>
       </c>
       <c r="Q3">
-        <v>2.50725839056808</v>
+        <v>0.04141938374</v>
       </c>
       <c r="R3">
-        <v>2.50725839056808</v>
+        <v>0.24851630244</v>
       </c>
       <c r="S3">
-        <v>0.4557795436286614</v>
+        <v>0.006351253913039799</v>
       </c>
       <c r="T3">
-        <v>0.4557795436286614</v>
+        <v>0.006997423830376172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -652,60 +655,60 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.882114499818045</v>
+        <v>1.38698</v>
       </c>
       <c r="H4">
-        <v>0.882114499818045</v>
+        <v>2.77396</v>
       </c>
       <c r="I4">
-        <v>0.3934142528571143</v>
+        <v>0.5967131687073423</v>
       </c>
       <c r="J4">
-        <v>0.3934142528571143</v>
+        <v>0.4965808999056411</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.6099530374952959</v>
+        <v>0.06825266666666667</v>
       </c>
       <c r="N4">
-        <v>0.6099530374952959</v>
+        <v>0.204758</v>
       </c>
       <c r="O4">
-        <v>0.2486148153406921</v>
+        <v>0.0243265232026164</v>
       </c>
       <c r="P4">
-        <v>0.2486148153406921</v>
+        <v>0.03220581978500407</v>
       </c>
       <c r="Q4">
-        <v>0.5380484185826603</v>
+        <v>0.09466508361333333</v>
       </c>
       <c r="R4">
-        <v>0.5380484185826603</v>
+        <v>0.56799050168</v>
       </c>
       <c r="S4">
-        <v>0.09780861182646784</v>
+        <v>0.01451595674386592</v>
       </c>
       <c r="T4">
-        <v>0.09780861182646784</v>
+        <v>0.01599279497103622</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,55 +717,303 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.38698</v>
+      </c>
+      <c r="H5">
+        <v>2.77396</v>
+      </c>
+      <c r="I5">
+        <v>0.5967131687073423</v>
+      </c>
+      <c r="J5">
+        <v>0.4965808999056411</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2.059273</v>
+      </c>
+      <c r="N5">
+        <v>4.118546</v>
+      </c>
+      <c r="O5">
+        <v>0.7339632993341625</v>
+      </c>
+      <c r="P5">
+        <v>0.6477947149915969</v>
+      </c>
+      <c r="Q5">
+        <v>2.85617046554</v>
+      </c>
+      <c r="R5">
+        <v>11.42468186216</v>
+      </c>
+      <c r="S5">
+        <v>0.4379655660605836</v>
+      </c>
+      <c r="T5">
+        <v>0.3216824825246455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.9373863333333334</v>
+      </c>
+      <c r="H6">
+        <v>2.812159</v>
+      </c>
+      <c r="I6">
+        <v>0.4032868312926577</v>
+      </c>
+      <c r="J6">
+        <v>0.503419100094359</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.6483006666666666</v>
+      </c>
+      <c r="N6">
+        <v>1.944902</v>
+      </c>
+      <c r="O6">
+        <v>0.2310664473662325</v>
+      </c>
+      <c r="P6">
+        <v>0.3059082590740972</v>
+      </c>
+      <c r="Q6">
+        <v>0.6077081848242223</v>
+      </c>
+      <c r="R6">
+        <v>5.469373663418001</v>
+      </c>
+      <c r="S6">
+        <v>0.09318605537637958</v>
+      </c>
+      <c r="T6">
+        <v>0.154000060494514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.882114499818045</v>
-      </c>
-      <c r="H5">
-        <v>0.882114499818045</v>
-      </c>
-      <c r="I5">
-        <v>0.3934142528571143</v>
-      </c>
-      <c r="J5">
-        <v>0.3934142528571143</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.84345279296352</v>
-      </c>
-      <c r="N5">
-        <v>1.84345279296352</v>
-      </c>
-      <c r="O5">
-        <v>0.7513851846593079</v>
-      </c>
-      <c r="P5">
-        <v>0.7513851846593079</v>
-      </c>
-      <c r="Q5">
-        <v>1.626136438403194</v>
-      </c>
-      <c r="R5">
-        <v>1.626136438403194</v>
-      </c>
-      <c r="S5">
-        <v>0.2956056410306465</v>
-      </c>
-      <c r="T5">
-        <v>0.2956056410306465</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.9373863333333334</v>
+      </c>
+      <c r="H7">
+        <v>2.812159</v>
+      </c>
+      <c r="I7">
+        <v>0.4032868312926577</v>
+      </c>
+      <c r="J7">
+        <v>0.503419100094359</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.029863</v>
+      </c>
+      <c r="N7">
+        <v>0.089589</v>
+      </c>
+      <c r="O7">
+        <v>0.01064373009698864</v>
+      </c>
+      <c r="P7">
+        <v>0.01409120614930176</v>
+      </c>
+      <c r="Q7">
+        <v>0.02799316807233334</v>
+      </c>
+      <c r="R7">
+        <v>0.251938512651</v>
+      </c>
+      <c r="S7">
+        <v>0.004292476183948842</v>
+      </c>
+      <c r="T7">
+        <v>0.007093782318925591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9373863333333334</v>
+      </c>
+      <c r="H8">
+        <v>2.812159</v>
+      </c>
+      <c r="I8">
+        <v>0.4032868312926577</v>
+      </c>
+      <c r="J8">
+        <v>0.503419100094359</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.06825266666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.204758</v>
+      </c>
+      <c r="O8">
+        <v>0.0243265232026164</v>
+      </c>
+      <c r="P8">
+        <v>0.03220581978500407</v>
+      </c>
+      <c r="Q8">
+        <v>0.0639791169468889</v>
+      </c>
+      <c r="R8">
+        <v>0.5758120525220001</v>
+      </c>
+      <c r="S8">
+        <v>0.009810566458750484</v>
+      </c>
+      <c r="T8">
+        <v>0.01621302481396785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9373863333333334</v>
+      </c>
+      <c r="H9">
+        <v>2.812159</v>
+      </c>
+      <c r="I9">
+        <v>0.4032868312926577</v>
+      </c>
+      <c r="J9">
+        <v>0.503419100094359</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.059273</v>
+      </c>
+      <c r="N9">
+        <v>4.118546</v>
+      </c>
+      <c r="O9">
+        <v>0.7339632993341625</v>
+      </c>
+      <c r="P9">
+        <v>0.6477947149915969</v>
+      </c>
+      <c r="Q9">
+        <v>1.930334366802334</v>
+      </c>
+      <c r="R9">
+        <v>11.582006200814</v>
+      </c>
+      <c r="S9">
+        <v>0.2959977332735789</v>
+      </c>
+      <c r="T9">
+        <v>0.3261122324669515</v>
       </c>
     </row>
   </sheetData>
